--- a/data_annotation/output_to_annonate/file_2_georgia.xlsx
+++ b/data_annotation/output_to_annonate/file_2_georgia.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2nd review as 1st one lost! My husband and 2 friends had the pleasure of going on this trip on Mon 3rd Sept. Antonia and Michalis were fabulous hosts from the moment we stepped on board and I hold a lot of memories from this day. We had a lot of laughs with the other guests and…</t>
+          <t>we had agreat time at dimitris boat. the man is amazing he duved and brought up axinous and petalides as they are called at their islands. so kind and great host ,</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a truly unforgettable day</t>
+          <t>fishing trip amazing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -485,12 +485,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>We spent a very nice day on the sea. We caught lots of tuna, Giannis knows well the good places. He was also very helpful and made a fantastic lunch for us.</t>
+          <t xml:space="preserve">We did the sunset cruise and dinner and semi private tour. It was absolutely wonderful. So much fun! The captain was friendly and knowledgeable and her passion shows on this trip. We made friends with the four other people on the boat with us. The fish was amazing and cooked so well. It was so much fun seeing them pull the fish and shrimp and OCTOPUS!!! from the nets and traps. We even got to fish with poles and swim and snorkel in the cove. I would recommend this to everyone. I am so happy we booked this!! </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Perfect day on the sea</t>
+          <t xml:space="preserve">My favorite part of our Santorini trip! </t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -501,12 +501,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>We wanted to go fishing on the island and came across this tour. It exceeded our expectations as we spent the whole day feeling like part of Tina's beautiful family as we caught fish, swam in crystal clear waters away from masses of tourists, and ate fresh grilled fish on the…</t>
+          <t>Superb and chilled out. Adventures to secluded beaches, caves and underwater caverns. Jumping from seriously big boulders into perfectly blue waters. Watching the 'catch' reeled in - fascinating and hypnotic! The guys are so accommodating and friendly - I hope this continues to be such a success for you both, K&amp;D. Thanks for the best day. x</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Our best experience on Milos</t>
+          <t>Great day out, lovely people and memories for some time to come.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -517,12 +517,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>This was an amazing experience. The crew and captain were interesting, friendly and helpful. They only take a few people on the boat. We were 6. We pulled up nets with all kinds of fish and learned about each of them... many of which you probably have never seen if you live in…</t>
+          <t xml:space="preserve">A fabulous day out fishing with Dimitris on his own boat. We caught 98 fish between 7 people which was excellent and was shared out at the end of the trip. Needless to say we had to give it to one of the tavernas in return for a very cheap dinner. This is a great day out for anybody, couples and families alike.Stopping off for a swim and also lunch. I would love to do it again on another visit to Skiathos </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fish! Swim! Eat!</t>
+          <t xml:space="preserve">The Best day out </t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -533,12 +533,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amazing experience on a Truly authentic, family run Greek fishing boat.  Fantastic to see all the different varieties of fish being reeled in, including my favourite - Lobster -  Lots and lots of Lobsters - I have never eaten so much Lobster in one meal! Absolutely delicious! …</t>
+          <t>It was an amazing tour!  Mr Andreas is a great captain! We feel like we are still there, swimming in these crystal waters. The best moment was lunch!!! Captain Andreas was the chief fisherman and we tried to help him to catch fish and then we had a perfect meal with absolutely fresh fish. Almost forgot to mention the traditional treats we enjoyed, like ladenia and watermelon pie (DELICIOUS). Can't wait to visit Milos next year and of course our friend Mr Andreas!</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Best trip ever in all my world travels.</t>
+          <t>Astonishing trip</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -549,12 +549,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>We have just returned from our day on the boat. A truly wonderful trip, enjoying the hospitality of Antonia and her family.  Captain Hassan was also a star!  The food they produced from the catch of the day was amazing!  Great day, great experience.  Would recommend to all…</t>
+          <t>This fishing tour was the best part of our honeymoon! Our captain was this amazing woman who had been fishing all her life and she had lived right on the ocean with her family! She knew everything about the area and had so much knowledge and experience! We caught shrimp, eels, octopus, and a number of other fish! They had unlimited local wine and beer and appetizers for us while they cooked up all the fresh fish we had just caught!!! It was incredible! We also got to swim and snorkel in the bay and then watch the sunset on our way back to the port! It was such a great experience! Highly recommend!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wonderful trip with lovely family!</t>
+          <t>Best part of our honeymoon!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -565,12 +565,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Just returned from the most magical day at sea with Captain Nikos, his wonderful wife Frossa and the legend who catches the fish, Simos.  I never write reviews, but felt compelled to share the pure joy we all experienced today. This is a traditional fishing boat, so you get to…</t>
+          <t xml:space="preserve">I have been looking forward to this trip since June and it lived up to everything and more , Antonio was so good on communication no matter when , being a keen fisherman it was fascinating to see all the different species bought in , we all got stuck in getting the fish out as soon as possible ready for michalis to cook , anchored in a pretty cove and basically chilled until lunch was made , lobster , fish , pasta salads etc all washed down with homemade wine .. antonio was so welcoming and in no time the 10 on board were chatting like old friends .. fantastic day will return 100% next time in kefalonia , thank you again . Gary and Amanda </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Best day EVER!</t>
+          <t xml:space="preserve">Fish, swim , eat , drink laugh </t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -581,12 +581,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Our fishing cruise trip with the lovely efi &amp; dimitris was a day we will never forget. Such an amazing experience, retrieving so many fish from the nets, plenty of swimming in the sea, the freshest fish you could ever have cooked for you with so much more. I could not praise…</t>
+          <t xml:space="preserve">My husband and I always said we'd never go back to the same place twice, but we're going to break our own rule and go back again, to experience this trip again. A fabulous day with excellent hosts, fishing, swimming, eating the catch, washed down with local wine - my idea of heaven. The group's are small enough to be friendly and are really authentic unlike many of the other touristy boat trips. Definitely a 10/10. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The best day ever!!!</t>
+          <t>Excellent day out, authentic and friendly</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>We had a fantastic day swimming - fishing - swimming - eating and more fishing , unfortunately no fish were caught today although a very large one snap the hook - we can not fault the skipper and his daughter and granddaughter - fun family day out with lovely fish dinner in…</t>
+          <t>Run by the two nicest people in Greece - Dimitris and Efi. We had the best day!  We started at 8am from Kefalonia Harbour and set out to pull in the fishing nets that had been set the night before. Kids were Uber excited as we pulled in Parrot fish, bass, bream, mullet, Scorpion fish, squid and cuttlefish plus more - and everyone helped. Then went to a deserted beach for swimming and discovered a hidden gem... natural mineral-rich clay which we plastered all over our bodies before swimming back to the boat for a FANTASTIC meal of the fish we’d caught plus fresh vegetables from Efi’s and Dimitrios’ garden all washed down by their excellent home made wine!My 14year old daughter described it as “the best day of my life” Enough said!I really recommend it!John</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lovely day - lovely people </t>
+          <t>This is a “Must Do” if you are in Kefalonia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>We enjoyed a 4 hour fishing trip combined with very tasty food and swimming. The captain is friendly, relaxed and good with kids. Try it - you will not regret.</t>
+          <t>We booked this trip for the last day of our holiday in Kefalonia and it became the absolute highlight of the week!Antonia and crew could not have made us more welcome-The fishing was incredible to watch first hand, the food was absolutely amazing, swimming in the crystal blue waters and lovely company on the boat! A Perfect day!We can honestly say this is a Wonderful and Unique experience that should not be missed and a chance to make some Magical MemoriesThank you so much for the best day of our holiday!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Excellent fishing trip for the whole family</t>
+          <t>This was the best fishing trip EVER!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -629,12 +629,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>This fishing trip was one of my favorite experiences in Santorini! It was very authentic and I felt immersed in the Greek fishing culture. Our captain was very interactive and explained each fish/sea creature we caught. She has an incredible and impressive life story. The meal…</t>
+          <t>When not taking you on a trip around the island with his daughter Ntina, Kyriakos is a fisherman. This trip is the perfect mix between a touristic hop between the unaccessible beaches of Mílos, the experiencing or Paragadi fishing, and the tasting of traditional fish soup (fresher fish, you die! You’ve just taken it out of the water!)Avoid the big boats. You’ll just spend the day with 30 to 50 other tourists. Let Kyriakos and Ntina share a bit of their daily lives.These guys are a bit hard to find, so look for them in the port of Adamantas! The boat is called Anna Maria (Kyriako’s granddaughter).</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fishing Excursion</t>
+          <t>Ever felt at home on a boat?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -645,12 +645,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>This was such a special day out for us with Giannis and Nancy and their lovely daughter on their fab fishing boat. Just a nice small group of us spent the day out in the water - they were so friendly and helpful - we all caught fish including our 11 year old son who was so…</t>
+          <t>We enjoyed a 4 hour fishing trip combined with very tasty food and swimming. The captain is friendly, relaxed and good with kids. Try it - you will not regret.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The best day of our holiday by miles!</t>
+          <t>Excellent fishing trip for the whole family</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -661,12 +661,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>It was a lovely day on the ship...!! beautiful people, amazing food and sea.. even if you are not that interested in the fishing, you should prefer this tour because of the wonderful fresh fish and shrimps you ll have on board.. can t wait to go back next time  I ll be in…</t>
+          <t>This was such an amazing day!! More thanks to Yanis and Nancy who are the owners of the boat and the first ones to offer a fishing trip in Samos than anything else ️ They gave us a feeling it was our own boat since the moment we met. All day long they make sure you are having fun, taking you on the boat to the best fishing spots and teaching you how to fish if needed. We were lucky to catch many of them. All of us. When fishing was over we parked at the most amazing Bay with water so clear I was sure you only get to see in the Bahamas  some jumped in and I was happy Yanis let me help him clean the fish :) We talked and made jokes all day, cooked the amazing fish we caught wish some fresh bread salad and white wine and couldn’t be happier on our way back. We made new friends and had such a good experience I would go a million times more !</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>everything they say and more!!!</t>
+          <t>Best Fishing trip ever!!</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -677,12 +677,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>We booked this trip after the snorkel trip we had booked with another boat got cancelled. We could not have been happier and were very glad it worked out that we got to go with captain and his daughter. Our family wanted to snorkel at kleftiko but most boats couldn’t accommodate…</t>
+          <t>Booked after reading all the TA reviews. As soon as we got onboard we could tell that we were in good hands. Coffee and freshly baked cake to start the morning was amazing. We traveled out to the fishing nets laid out before and watched Antonio and Hassan work together to bring them in. Soon enough we were rewarded with a large lobster closely followed by its smaller siblings. With enough lobster and fish to feed the boat we headed for a little secluded bay where lunch was prepared for us. The new found crew got on like a house on fire and we enjoyed each other’s company tremendously. We chatted while lunch was prepared and soon enough plans were being made to continue the day when we got back to shore. Lunch was amazing. A beautiful fish soup full of flavour was our first course. Second course was a table full of fresh salad, spaghetti and of course the prized catch of the day - the lobster. Fresh sweet melon to top it all off we were stuffed. After lunch and another swim we headed back to the port and said our good-byes to our hosts Antonio, Michalis and Hassan. We had a great day and learnt a great deal but the highlight was that we felt like family from the very first minute we met them. We all came together and had the best possible day which continued at our new crew mates hotel pool not far from the port. The conversation was dominated by the days events which is a testament to Antonia, Michalis Hassan and all those we met onboard. Awesome awesome awesome day. Thank you.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wonderful Trip!</t>
+          <t>Absolutely perfect</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -693,12 +693,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>This fishing trip was definitely one of the best excursions I have ever been on and gave me a real insight into the hard work of a fisherman. As soon as you arrive are you greeted kindly by the crew and made to feel extremely welcome. You are provided with freshly made cake and…</t>
+          <t>A great way to see the islands with your family.  Fresh cooked seafood for lunch caught on your way out to your destination.  It is a must for a first time visit to this island!</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Best trip ever!!</t>
+          <t>Wonderful way to spend a day on the Aegean Sea!</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -709,12 +709,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>We had a fantastic time with crew and another couple, nearly a private tour!. We had fab food, crystal clear and calm waters for snorkelling, a fab fishing experience, catching all types of fish and octopus.. we will definitely do it again with the kids next time.. if you fancy…</t>
+          <t xml:space="preserve">We travelled on this trip at 5pm....yesterday.....I think if you are looking for a fishing trip then you need to do the morning trip!! Saying that ...it was great the kids could see the putting out of 6km of nets!! Ready for the mornings trip catch....It seemed a long labourious task that Captain Mihalis and Hassan  did with ease. It made us laugh as there were lots of seaweed relics in the nets. The whole trip was made a lot more bearable by three very lovely ladies that joined us on this trip, and they thankfully  supervised the children when they went for a swim from the boat...unfortunately my husband and I due to arthritis could not manage to get out of the boat to swim, neither can my daughter who has injuries to her foot. The children both age 9 swam beautifully from the boat and back  to the boat.  Finally Antonia cooked the most beautiful meal ever.... the lobster was massive and plentiful salads were gorgeous and I don’t know the name of the bread with tomatoes cucumbers and everything else traditional Greek dish was fabulous.  Antonia even provided the children with spaghetti some plain as we have a very fussy eater! All washed down by what Antonia called Grape juice ! It was lovely we all enjoyed ourselves..... thank you all very very much ...we got back to the port around 10 o’clock and the kids were exhausted and fell asleep,n the way back in the car </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Best part of the holiday</t>
+          <t>Well this was different.,,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>We booked this fishing tour to cap off our stay in Santorini - and it was definitely worth it! Anthi and the crew were very lovely, always around to explain about the catch of the day, netting processes etc. They helped us out with fishing rods etc and kept us updated about what…</t>
+          <t>A fantastic experience we loved it, so will try to book for next Friday. Thoroughly recommend to anyone that fancies a day on a boat. Fish caught are cooked onboard for you</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Awesome day out at sea</t>
+          <t>Brilliant Day</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -741,12 +741,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I cannot recommend this trip enough. Half day out on the sea was only €35. You got so much for your money. A peaceful journey around the coast on a small fishing vessel with complimentary beer and wine or soft drinks to get you in a relaxed mood then a good hour or so of fishing…</t>
+          <t xml:space="preserve">Antonia is a delicious person, so kind and so sweet: she came to peek us up early in the morning because we were a little bit far from the port! The day started with an amazing slice of cake cooked by herself and continued with a lot of great food and mostly important with a lot of fun! The company was great, we enjoyed the day so much from the first minute to the last.The beach we saw was incredible, we dived and swam all day. And lastly, I’m Italian and I can tell that the spaghetti that Michaelis and Antonia Made were simply PERFECT. Most beautiful day in Cefalonia.Thank you thank you thank you! </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wondering day on the sea.</t>
+          <t>Best experience ever!!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -757,12 +757,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Had a lovely day yesterday with Efi and Dimitrios we where due to do the trip early in the week but due to the bad weather Efi rearranged it for us, from start to finish this trip was fun and full of information about Kefalonia and the fish we caught and Efi cooked. There was 8…</t>
+          <t xml:space="preserve">Great trip! A bit of a hidden gem as they are a relatively new company operating. Geronimus and Babis are excellent hosts and made us all feel very welcome. It was fascinating watching them pull in their nets from the night before to see what they had caught, and the food they cooked up for us as a result was incredible! We also had a lovely swim on a quiet beach they took us to. We really enjoyed being on a smaller boat where the experience was more hands-on and personal. Don’t hesitate to book. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brilliant day made by Efi and Dimitrios</t>
+          <t>Fantastic day out</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -773,12 +773,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The temperature was awesome, the captain, his wife and his employee were very nice and were always proposing something to drink and to eat. We ate so many kind of fishes and it really worth it. We were only 3 customers on the boat so it was a very private tour. I recommend this…</t>
+          <t>So my boyfriend was keen to go on a fishing trip and was absolutely buzzing about this trip. I originally was not so much....but I took a sea sickness tablet and thought I’d give it a go! We first set sail and it was a bit rocky but it was okay! I was such a novice and struggled to catch anything at first but I caught one fish, so I was happy! My boyfriend and all the other members of the boat were catching loads, including puffer fish (which you cant eat but are nice to see!) it was so calm sat on the sea under the shaded canopy.The team were always around to give you any tips to help you! After some time fishing we stopped off for snorkelling while the team cooked up what we had caught. This was my highlight of the trip. Sitting looking out to the sea eating bbq fish caught and cooked within a couple of hours was amazing. The crew threw bread into the water to attract the fish and they were all jumping out of the water. Beers and soft drinks were available and offered throughout. It was lovely sat at the front of the boat with a cold beer staring out into the sea!My boyfriend came away saying it was definitely his highlight and I’ve got to say I would definitely do it again too! Thanks to the whole team! We even recommended you guys to a couple back at the hotel!</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Very nice day!!</t>
+          <t>Never fished before but this was so good!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -789,12 +789,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Had an unbelievable day out in the crystal clear waters surrounding Poros with our captain Giannis. We watched as he spear fished two Parrot fish for our lunch as we snorkeled at beautiful protected spots along the coast. As 6 friends in their late 20s this was the perfect day…</t>
+          <t>amazing people!we catches a lot of fishes!we drunk greek tsipouro and we grilled the fishes we catched</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snorkeling and fishing bliss</t>
+          <t>fishing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -805,12 +805,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Perfect i 'll do it again!l!l   experience the local culture with a local family fishermans!!!!!!!   We doing the fishing after that we take the fishesand we are eating a very good meal !!!!!!</t>
+          <t>Without hesitation I would recommend this trip to everyone - Families, couples or friends. It included fishing, live music, sightseeing, swimming and dining. The live music by Antonis and Kiriakos was so emotional and wonderful that it touched my soul. For the dining Vetta is preparing the fishes you caught yourself before and those are accompanied on the table by other traditional self made Greek food. What impressed me the most was that the whole family gives everything to give you one of the best days of your live - and this comes out of there heart. Thank you Vetta, Kiriakos and Antonis!</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fishihg trip experience</t>
+          <t>Expected a fishing tour and ended with an experience for live</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -821,12 +821,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Great fishing trip with lots of action, would definitely recommend to any anglers looking to get a few hours of fishing in during their holidays</t>
+          <t>This was a highlight of our visit to Santorini.  Anthi is so very proud of what she does and her heritage.  It bleeds through in all she does on the fishing trip.  Her crew is very helpful and cheery as well.  We truly enjoyed every minute.  It was very informative to learn about several aspects of fishing from traps to nets to hand lines.  We strongly recommend this fishing experience.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Great trip!</t>
+          <t>An excursion of a lifetime</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -837,12 +837,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A wonderful tour, with great fishing and swimming.  To top it all off a great lunch with grilled fish and greek sallad. The Captain is great! And so is the girls in the marina. Excellent service. We strongly recommend this ❤</t>
+          <t>An amazing day out and what Poros has been missing. Giannis is a brilliant skipper, host, fishing genius! 6 of us went, 3 adults and 3 children and everyone loved it!!! Highly recommend this for all! See you again next year</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>Brilliant fishing trip and snorkelling</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A trip not to be missed, we had an amazing day out on the boat with our hosts Efi &amp; Dimitri. Fresh fish all cooked whilst you can go for a swim in the crystal waters, then sit back on the boat to eat together with home made wine! Fantastic day out enjoyed by all of us, such…</t>
+          <t xml:space="preserve">We had a fabulous day fishing, swimming and eating what we caught. The fresh fish tasted amazing. I highly recommend this trip. </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wonderful day</t>
+          <t xml:space="preserve">Great experience </t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -869,12 +869,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hello from the Norwegians.  My fiancé Sam and I booked this boat trip as our wedding present to one of our favourite friends :) We wanted to book a whole day trip with authentic Greeks and authentic Greek foods and views. And that is exactly what we got!  Antonia, Michalis the…</t>
+          <t>We have just had one of the most memorable days of our lives.All thanks to Dimitrios and Efthimia.What a day! And where to start?!?First of all we must say if you are visiting the island this is a MUST do trip. Even if you do one this has to be it.We saw turtles, seals and so many types of fish. Helped trawl the fish from the sea and helped get them out of the net. We learned so much about each fish thst was caught, Dimitrios and Efthimia are so knowledgeable and truly know what they are talking about. We sailed to two remote beaches. Both breathtaking. One had a pit of natural clay. We covered ourselves in it. It felt amazing to use earths natural resources in that way. Our skin looked and felt like we'd been at a spa for the day.Even our teenage son joined in. We swam in the perfect turquoise waters and so much fun diving and jumping off the boat.While we were left to enjoy our surroundings Dimitrios and Efthimia were preparing and cooking up a storm on board. All the fish caught from the morning we ate. It was the best meal we'd eaten since being here. Everything was so fresh and tasty. We were astounded with all that was provided. Homemade lemonade, wine, fresh watermelon,  salads, fish, bread. We were all stuffed! The boat was constantly being hosed down and kept clean. We could go on and on but you just have to experience it yourself. It's for every age from young to old (or wise) Really was a day to remember.Thank you so much Dimitrios and Efthimia!!We will be coming back again!! Lindsey, Lee and Lucas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>An authentic and amazing Greek boat trip 🇬🇷</t>
+          <t>Most amazing day!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I have to say, in all the years we have been coming to Kefalonia this is the BEST and funniest daytrip I have ever been on thanks to our wonderful hosts Efi Bacha Takidou and Dimitris Takidis and our lovely new friends Victoria, Simon, Sharon and Keith. We made the best memories…</t>
+          <t>I arranged a trip while in uk when we got there was told they was not going out so we rebooked and then was told the day before there was going to be bad weather,let me just say I am a seasoned fisherman from Grimsby,and the weather was perfect hardly any wind i just think they overbooked people which is a shame because I was really looking forward to this trip.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cannot recommend highly enough!</t>
+          <t>The trip that never was</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -901,12 +901,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>We had fishing trip yesterday. All our expectations were come true. Captain of the boat was very amicable and friendly. During the trip we caught quite a few fishes and got a lot of enjoy. Highly recommended for any who'd like enjoy holidays. Thanks a lot for great amusement.</t>
+          <t xml:space="preserve">Anthony and his father are the most friendly people ever. We did two fantastic trips with them. We visited the volcano and did a sunset cruise. We were swimming in a beautiful bay and had an amazing dinner from fish, which they caught fresh before. We also saw the sunset accompanied by the great music performed by father and son.We had a really unforgettable experience. </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Best fishing trip!</t>
+          <t xml:space="preserve">Sunset Cruise </t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -917,12 +917,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>This is the most perfect way to spend a day. Starting with breakfast on board the boat this day includes bringing the fishing nets in and helping to unload the fish if you like or just take photos if you prefer. Then some swim stops in crystal clear water to deserted beaches and…</t>
+          <t>Travelling as a family, generally its difficult to find activities a couple and Girls would be happy to do. despite early reservations (would girls be ok with the fishing) we embarked on our trip and had a most wonderful experience.Captain Vassilli and his co pilot Mark were excellent and basically taught us all to fish, They showed great patience and skill with our 10 year old who initially found the sport alien, however she went on to catch 5 good fish...  and thoroughly enjoyed her day. to a man we all agreed this was a holiday highlight. Food was fabulous and included some of our catch... well done Makarounas Fishing Trip. Highly recommended.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The best trip ever</t>
+          <t>The best family fun we had in Rhodes..........</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -933,12 +933,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>We had a fabulous day with Dimitris and Efi. Helping to take fish from the nets, then 2 swimming stops, then a lovely lunch prepared by Efi from the fish caught plus salads and wine etc. This was one of the best days of our holiday in Katelios, Kefalonia. Thank you Dimitrios and Efi, and Mohammed the crew man.…</t>
+          <t xml:space="preserve">Today will  be about Kefalonia, Efthimia and Dimitrios. Kefalonia is my favourite island from the 7 Greek island I’ve seen so far. And Efthimia and Dimitrios will be, from now on, one more reason for that. They are my favourite tour hosts, ever. The food Efthimia cooks ( fresh, catch of the day fish, sea food and vegetables) is delicious; Dimitrios is funny, communicative and helpful. Their small boat is spotless, and comfortable. For  those who, like me,  had no idea about net fishing, it is very instructive, too. Don’t miss this experience, if you are in Kefalonia. It’s a must.And now about Kefalonia : as in all the Ionian Sea islands, water is unbelievable clear, and in 50 shades of ...blue. It changes colors,depending on the moment of the day. At this time of the year the water is rather cold, but refreshing, all in all. People are friendly and helpful and speak English quite well. There are lots of guests houses, b&amp;b, hotels. The entire island is full of small, cosy villages, each and every one of it with its special feature. As the island is practically a mountain in the middle of the sea you’ll definitely need a car, as everywhere you go, you’ll have to go up and down on windy roads. The views are amazing, breathtaking, wherever you look. And it’s not crowded if you chose to come beginning of June or late August, beginning of September.I don’t know exactly about July and August but most certainly it might be too hot. Depending on your interests, the hosts of your guests house will advise you. Argostoli the capital, is a nice,  clean and neat city, with something for everybody( fancy restaurants and hotels, dancing clubs, local designers shops, playgrounds for children ) but  if you prefer just to relax and enjoy a good bath in Cristal clear waters and white, yellow, black sand, look for lodging in the villages scattered all over the moutains. You won’t regret it. </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Great Day's Fishing and Swimming!</t>
+          <t xml:space="preserve">This is a must </t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -949,12 +949,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>We booked this tour thinking WE were going to get to fish- even sent an email before hand asking if we got to fish. This is NOT a fishing charter. You are watching them fish from traps and pull nets and they cook the fish on the boat and you go to a cove and eat and swim. We…</t>
+          <t>The fishing, the beaches and the incredible good lunch consisting of freshly caught fish and lobster, everything will be a memory for life!Dimitrios and Efi were so nice and very good hosts, they showed us their work and their island and took very good care of us! It was a really great day! I would definitely recommend it.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Very Sad- You WATCH THEM Fish...</t>
+          <t>An amazing experience!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -965,12 +965,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>First I just wanted to try the fishing experience in Skiatos.I chose Dimitris's fishing boat and it was the best choice I have ever made! I went fishing for about 4 hours and we had everything at our disposal: a complete fishing equipement, sandwiches, beer, water, fruits,etc.He…</t>
+          <t xml:space="preserve">First of all, the Captain, Giorgios, is one of the most friendly person I've met. When we arrived, he offered us coffee and biscuits made by his mother-in-law, who does the cooking in the shop. He will also talk to you like you are one of his best friend and it makes the experience very special and intimate. The ship is extremely clean and it's easy of access. It has a toilet, a couple of benches and you can also go in the front next to the Captain's cabin to sunbathe. The experience is a thing you have to live if you go to zakynthos. Giorgios will explain the process of fishing with nets, the type of fish you will catch and tell you fishing stories. The two places we go swimming are incredible. You will see fishes if you have water goggles and the water is very clear and warm. Finally, you will eat a very good dinner,made by the Captain's mother-in-law, composed of the fishes you caught and many other things. </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Excelent fishing and sailing experience</t>
+          <t>A must do trip</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -981,12 +981,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Since we went in the end of the season, we had the opportunity to go on the fishing trip alone as a couple.  First, the captain navigated us to some places to take nice pictures of the old town of Rhodos. After the photo's we went further on the sea to fish. I'd never fished…</t>
+          <t xml:space="preserve">From start to finish the day couldn't have been more perfect ! We were welcomed onto the boat by Efi  and Demetrios as if we were old friends and by the end of the day we certainly felt as if we had known them longer than a day. Efi and Demetrios along with Mohammed and Demetrios parent's made the day so wonderfully special. The hauling in of the fishing nets.. to us novices trying to get our catch (lunch )of Red snapper .. Sea bream ... Squid .. out of the nets ... very very  tricky but made to look so easy by Efi who I hasten to add had the patience of a saint with us when we seemed to get the fish more tangled up in the net's !!! We had 2 opportunities to cool off in the sea. Once in the morning we swam in the clearest blue water onto a little cove to dry off before swimming back to the boat for refreshments and again before lunch we anchored at another stunning cove where Demetrios Mum showed us how to use the clay from the beach to have a clay body scrub ... Just fabulous ! Lunch was cooked and served by Efi on the boat . The fish caught in the morning was cooked to perfection  the organic vegetables and salad all from Efi and Demetrios garden just delicious !! The wine served was another product of Efi and Demetrios making !! The day was definitely the most memorable of our holiday and one that when we return to Katelios we will do again !The only disappointing thing about this trip was that it ended too quickly and that Jame's (a fellow day tripper ) didn't catch any fish with his rod he had bought all the way from Scotland .. But at least Demetrios Dad got the use of the rod whilst we were swimming and the amazing man did catch a fish !!! Unique trip with great company. Thank you Efi, Demetrios , Demetrio's lovely parents and Mohammed !! </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great fishing trip! </t>
+          <t>Perfect !</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -997,12 +997,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Thanks so much! We had a great time this morning. Efi went out of her way to help us at every point, even offering to book us a ride back to Agostoli with her friend afterwards as we had no transport. The day was amazing and the food delicious. We would love to come back again…</t>
+          <t>Dimitris and Effi are part of the new fishing tourism in Greece - a most interesting way of getting out there to see what life for fishermen entails. Really educational and I'm bringing my children next year - they will love seeing the colourful and varied fish - and lobster- a lot of which is later cooked by the hosts and eaten on the boat. Just come with swimming regalia - and snorkel - jump off the back of the boat into the cerulean waters and you can swim whilst lunch is prepped. Best fish I've tasted and you struggle to find anything fresher. Katelios harbour is easy to find - there's a toilet on the boat - and everything very clean. Message Effi and she promptly replies. The return journey was really exhilarating when Dmitris turns up the engines. I felt a bit sick and Effi had far superior pills on offer than the ones I had at home. Thanks guys !!!! Yamas xxxx</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fab day out!</t>
+          <t>Fantastic trip with lovely hosts</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alyki is a wonderful place in Paros for someone to visit! The ride by the boat of captain-Giorgis is a great and unique experience for me! Captain is very friendly and polite and he can take you to many nice sightseeings! If you go to Paros island don't miss this ride by boat !</t>
+          <t>We met in the harbour at  8 am , it was a lovely day and the sea was lovely and calm.we were welcomed on board by Antonia, who gave us Greek coffee and home made cake. We then went out to sea to pull in the nets that her husband Michaelis had been out and laid at 3 am. The nets go on forever and take over an hour to pull in , but the fish that are caught are very varied and saw fish never seen before.Then the nets are emptied of the fish  mainly by Mustapha and Michaelis but you can help if you want? We then stopped at a beautiful  spot, where we swam in the clear turquoise waters whilst Antonia prepared Lunch. After lunch there was the opportunity to swim again or fish with rods.The pictures say it all,never have I had fish so fresh and so much, the best lunch and experience of our whole holiday .We eventually made our way back , returning about four thirty. Great value day out with a lovely family, not forgetting the other passengers on the boat who also made the day enjoyable.You will not be disappointed</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ride by boat with captain-Giorgis is a unique experience !</t>
+          <t>This is a must do , do not miss this, best day ever</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>This is a must if you visit Rhodos. An amazing experience with nice fishing and swimming. And then to top It all of,  we got a good meal with grilled Fish, greek sallad, bread and beverege. And a slice of watermelon to end a  Nice meal 😋  Very Nice staff and Captain. We highly…</t>
+          <t>Captain Kyriakos is an authentic man and very joyful person and his daughter Tina was very kind.They are both very friendly and full of humor!! We went for fishing and caught many fishes!! Mr Kyriakos and his daughter Tina cooked the fishes and other tradiniotal greek dishes. They also provided delicious breakfast and fruits! The trip and the beaches we visited were amazing (Gerakas, Tsigkardo, Kleftiko) . The fishing trip is for maximum 10 persons therefore i suggest to book 2-3 days before. The most amazing and authentic experience!! Thank you so much Captain and Tina!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>An amazing trip  🎣</t>
+          <t xml:space="preserve">Amazing and Authentic Experience </t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1045,12 +1045,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mr Captain Giorgos was exceptionaly friendly, welcoming and nice .  I lived an unforgetable experience in the blue aegean sea and I would undoubtably recommend it to everyone !!</t>
+          <t>Best day of the two weeks holiday. Traditional fishing with a local family. Made to feel part of the whole experience. A MUST for any keen fishermen. Pulled up on a lovely beach, ate what we caught and swam from the boat. Maximum of 12 people so totally authentic. Lovely people on board and the hosts were amazing. Almost forgot to mention the wine and dancing. Thanks to you from Rob and Lisa xxx</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Unique Experience</t>
+          <t>Fishing fantastico!</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1061,12 +1061,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I had a great day today, Anthi was warm from the first email to the goodbye hug.   Anthi is passionate about fishing, the marine environment and conserving it and knows the local area like the back of her hand. She and her crew are great accompaniments with a huge diversity of…</t>
+          <t>This is a special trip. If you have the opportunity, take it. And you may have the best lunch you will ever have on your holiday.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fantastic trip with passionate, sustainable local family run business.</t>
+          <t>Unique day.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1077,12 +1077,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>In our opinion this trip out is a must do. From start to finish were made to feel welcome, and within 30 minutes of boarding the boat, we felt that we were with friends that we had known all along. Antonia and Michalis, and their lovely daughter Nikki who also joined us, were…</t>
+          <t>This isan experience of a lifetime. We left zante Harbour while the sun was rising and then we stopped to put the fishing nets in the water then we had sone melon and drinks. Then we left the netd behind to go and have a swim at a beautiful secluded beach for a few hours. Then back to the nets to pull them back on board. A very successful catch too with a variety of fish caught including an octopus and a sponge. Then we sailed to another beach for a swim while the fish was prepared on board with wine spaghetti and bread. Absolutely beautiful meal. Giorgos the captain has a great sense of humour and lets you get involved in everything and if you're lucky he might let you stear the boat. Very clean and hygienic which i didn't expect. Couldn't recommend anymore, dont miss out!</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>OMG ! What a great day out.</t>
+          <t>Fantastic trip</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dear Nancy and Giannis,  Thank you for the wonderful day. We enjoyed everything... The fishing was a great experience, the lunch was outstanding. Your kindness and enthousiasm is appreciated in many ways. We will meet again. To others: I would recommend this trip to everyone...</t>
+          <t>Me and my family spent a great I have visited Acropolis with 3 other people yesterday. While we were impressed with the long lansting ruins and their majestic posture, we were highly disappointed in the organisation and personnel's attitude.My boyfriend had a mug from his workplace with him, in an attempt to make a joke with his co-workers, he put the mug on a rock (no signs indicating that you we were not allowed to take a picture with the mobile phone or that we should not touch the object) and took a picture of it. We were whistled and shout at and one of the "guards" came to us afterwards demeaning that he erases the photo. Later on, the same person told us that we were not supposed to bring water from outside.We were reported via walkie talkie and followed around the site by other "guards". Other information which may come in handy: the water on site is €4.5 a 500ml bottle and the ticket for the Acropolis and Dyonisios  experience we had on the island.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t xml:space="preserve">Amazing day </t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1109,12 +1109,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>We went last year and came back for 2 more trips this year! Giannis is a brilliant skipper as was Christa hosting. Always fun and interesting. The fishing was superb as was the swimming and snorkelling. You must go if you’re staying in Poros or nearby.</t>
+          <t xml:space="preserve">Thank you Captain Michalis, Antonia, and Mustafa for a brilliant day. It was wonderful to join your boat to experience and appreciate just what goes into catching the fish that we eat.A brilliant day out meeting lovely people on board. There was plenty of opportunities to enjoy the scenery and coastline, and to swim and snorkel in a secluded bay before enjoying an amazing lunch prepared from the catch - thank you again - lovely photos and memories from a great day out! </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Legendary trip </t>
+          <t>Fantastic, unique experience and excellent food!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>We helped get in the 2 km nets and sort out the fish, including a lobster. We got to have 3 beautiful swims on deserted beaches including a brilliant beach with clay that made our skin feel re vitalised. Effi cooked a fantastic meal with the fish caught and my husband…</t>
+          <t>What can I say superb trip great hosts great food and drink nice easy fishing. We were out for nearly 5 hours typical Greek fishing boat stopped 3 places for fishing before dropping anchor for a swim while the fish were cooked on the barbecue on the boat served with Greek salad and wine or beer. Only 4 of us on the boat and still went out and really looked after us. I will definitely go back loved it</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What an amazing experience. We were welcomed by Effi, DImitri and Mohammad onto the fishing boat and the day began</t>
+          <t>Excellent trip</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1141,12 +1141,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">This trip is a must for visitors  to the island. Excellent day out. Friendly crew. Very accommodating. Highly recommended </t>
+          <t>One of the highlights of our trip.  Where else can you go fishing and the captain prepares your catch for your while you swim?  The lunch setup is super cute where they have your cooked fish, salad, and a side of bread for you all prepared for you at the "table" so when you hop back on the boat after your swim, all you do is eat.  With the food scraps you throw them into the water and a bunch of fish will fight over it.  It was fun watching that.  The fishing we caught that day were all very tiny though, so don't expect any big catch?  I'd def. recommend this fun half day trip with Makarounas if you are sick of lounging at the beach.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Excellent  day out</t>
+          <t>Free drinks and fresh lunch prepared for you</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1157,12 +1157,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The best day my husband and I spent in Milos. Niko, his wife Frossa and the deckhand Simos are awesome people, we felt like part of the family as soon as we put our feet on the boat. Their hospitality is incredible!   We left from the port of Pollonia and visited the islands of…</t>
+          <t>Very welcoming and helping staff, great time, amazing fishing experience and excellent dinner! I recommend to try it!</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Amazing</t>
+          <t>Enjoyed the trip.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1173,12 +1173,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazing Day. Very relaxing. Great to see the fish being caught fresh to then eat. Nothing to much trouble. Great scenery with the chance have a lovely swim and even a mud treatment or natural thrown in. Lunch and wine superd. Thank you for a lovely day.Highly recommended. </t>
+          <t>My husband and me book this tour it was a really nice trip the tourgides was friendly we feel home from the first moment .We have a perfect meal swim and sunset .We will come back...go on like this .Best regards‍️</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Amazing Day</t>
+          <t xml:space="preserve">Perfect </t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1189,12 +1189,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Having read the reviews already, I had a good idea we’d have a great day, and we wasn’t disappointed! The captain and the lady (I’m sorry I can’t remember names!) we’re fantastic hosts, the hospitality was great, all drinks were included with plenty of choice. The views were…</t>
+          <t>This was our second trip with Antonia &amp; Mixalis after enjoying our first trip so much.As it was early May the weather was unpredictable and our original trip had to be cancelled due to bad weather. However Antonia made sure we were re-booked in and had our trip. They will not travel if they think their customers will not enjoy the experience.We were provided with cheese pie and Greek coffee before we set sail at 8am.We set sail to the nets that were laid the previous night and then watched as they landed a great variety of sea life.Once the nets were hauled in we sailed to a beautiful secluded area where we stopped for a relax and if brave enough a swim (the sea is still cold at the moment, but some brave souls did go in)While we relax, Antonia and Mixalis cook the fish they have just caught, along with salad, potatoes and their own wine.The food is plentiful, you won't go hungry and delicious.After a leisurely lunch and relax, they then return you to the harbour, with a full stomach and beautiful new made friends.We had such a lovely day with Antonia, Mixalis and the other guests and can not wait to return in September for our third trip.If you are looking for something a little different and also great for kids, give this trip a try.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brilliant day out, one to experience!</t>
+          <t>Another great day</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1205,12 +1205,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>This fishing trip was the highlight of our holiday. Swimming, beautiful beaches, amazing scenery, fantastic lunch and wonderful hosts. Thank you both!</t>
+          <t xml:space="preserve">Loved the trip with George and the crew!Got the 7.30 start and was well worth it Had multiple swimming stops and even cooked seafood that was caught along the trip! A must do day trip for everyone involved! Cheers George </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A wonderful day out.</t>
+          <t>Great trip</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Would recommend this tour 100% great experience with great people. Thanks for a unique and memorable activity! </t>
+          <t>The fishing experience was enriching and one-of-a-kind, and the crew members friendly and thoughtful (not to mention incredible cooks). We watched them fish, name, and clean all kinds of fish (we even caught an octopus!) and observed other kinds of marine life at the same time. The route taken was varied and interesting, with some stunning waters, beaches, and volcanic rocks.This fishing tour is for people who enjoy eating fish, love the ocean water and want a truly Greek experience (and who want to taste the best fish broth they've ever had).If someone has issues with fish bones, we would recommend they call in advance and let them know, so they can serve and prepare additional food, which is what they did for us, as they are very accomodating and kind.Thank you Andreas, Andreas and Marios!</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic trout by amazing people </t>
+          <t>Very friendly people, excellent fresh fish and great experience!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>We booked this trip for the last day of our holiday in Kefalonia and it became the absolute highlight of the week! Antonia and crew could not have made us more welcome-The fishing was incredible to watch first hand, the food was absolutely amazing, swimming in the crystal blue…</t>
+          <t>I can not recommend this trip enough. We were made so welcome from beginning to end and the trip was an amazing experience for us adults as well as the children. We consisted of 4 adults and 5 children ranging from 5 years old to 15. Our first impressions were how spotlessly clean the boat was and how friendly George was. He was cheerful and very informative. Even the kids listened! After lowering the nets, we went swimming at a private island which was so beautiful. The children were amazed when we pulled the nets in and they saw all the fish that they’d caught. We then had another stop while George’s mother in law cooked for us. Absolutely delicious food. The kids even enjoyed it. George’s wine tasted amazing. Really great to see the kids tasting the fish that they’d caught. An unique experience for them. Thank you so much for a truly memorable day. The kids say it’s the best day of the holiday.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>This was the best fishing trip EVER!</t>
+          <t>Amazing day out</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1253,12 +1253,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Really relaxed and friendly fishing trip along the coast of Rhodes with our two teenage daughters.  The captain and his son (I think) were super friendly and couldn't do more for you.  The fishing was fun but the highlight was jumping off the boat for a swim and the delicious…</t>
+          <t xml:space="preserve">We had a brilliant day with Dimitri and Efi cruising around the coast line. Swimming in turquoise waters, natural clay face masks, catching our own lunch, Efi's wonderful cooking and Captain Dimitri taking us to secret beaches.  A very special day. </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fun, fishing and food</t>
+          <t>Wonderful, wonderful day!!!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1269,12 +1269,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you so much to Antonia and her family for a wonderful experience. A really different excursion. My 13 year old son enjoyed the day too. Antonia's preparation of the food was also exceptional </t>
+          <t>Had a fantastic day....4 trips in one. 1.Took us around the harbour by sea. 2.2to 2.5 hours fishing  3. Went close to beach so those that wanted to swim could. While... 4. Good bbq was prepared. The fish we hooked was added to the bbq and served with a salad. Well worth the money, we would highly recommend.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Unusual and Excellent Day</t>
+          <t>Perfect day at sea</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1285,12 +1285,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>It was really interesting and very well organized fishing trip. I am no fisherman but it was a lot of fun. We were with friends and my daughter of 3 years old. It was great. We caught some fish and we even saw dolphins. Thank you for the good experience</t>
+          <t>Four of us are just back from a fantastic trip with Antonia and Michalis, their daughter Nicki and Hassan (I’m not sure how you spell his name ).  What a first class day from booking on the Web, Antonia got back to me so promptly it was unbelievable, to getting back to the harbour at the end of the day.  I don’t know where to start, they make you feel part of their family from the moment you step on board their lovely traditional fishing boat.  The day started with coffee and cake whilst leaving the harbour on our way to picking up the nets.  They caught Lobster and Sea Bream which was all prepared for a magnificent  lunch, it was the best food we have had whilst in Kephalonia.  If you do nothing else whilst there then this day is a must and we wouldn’t hesitate to join them again and in fact can’t wait to book again.I can’t think of anything negative to say, it was just a glorious day with people who made you feel like family.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Great experience a lot of fun</t>
+          <t>Day Fishing trip</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>I would reccomend this to anyone even if they have never fished before. The fishing the food the swim in the sea deserve 5 stars the captain is amazing and the food he cooked on board was chicken and all the fish we had caught was 5 stars</t>
+          <t>Experience to do absolutely! Antonia very nice and helpful person for everything, great food and company!</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fishing trip</t>
+          <t>Great experience</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1317,12 +1317,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great couple, very friendly, very caring. Departed from Pollonia at 10.00 to go around the beautiful Poliaigos and returned at 18.00ish.. Great cook, and Super captain! </t>
+          <t>Highly recommendable! We had an amazing fishing trip with captain Dimitris! We catched our own fish and even spotted Dolphins! We made an evening trip, we saw a beautiful sunset. Drinks and snacks are on board. Almost every time we dropped in our hook, we catched a fish, unbelievable. Dimistris is a real fisherman, ambitious about fishing and friendly. Thank you for the exciting trip!</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best boat tour in Milos!! </t>
+          <t>Exciting fishing trip with captain Dimitris!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>We spent a wonderful day with these guys they were very friendly, we caught some fish went snorkelling and had a fantastic fresh cooked meal all for a very reasonable price. Highly recommended.</t>
+          <t xml:space="preserve">I Had a really great time , if you can just try it !!!The captain is awesome !! Really friendly guy ! </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fishing, snorkelling and a 1st class feed</t>
+          <t>Suggested 100℅</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Really layed back and family run boat.  You can fish,swim,chill at your own pace. No rush and you have meal on boat! If I come back here I will be looking them up and try to bring friends.</t>
+          <t>Vassilis and Antonis were absolutely great and gave us an amazing experience. We did not have any experience fishing but still managed to catch a couple small ones due to the very friendly crash course and expertise of the crew! Plenty of time for fishing, and we even made a second stop. To top it up some snorkeling while Vassilis expertly prepares the days catch and some fresh salad and a nice trip back to the harbor!</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Great experience</t>
+          <t>Perfect Fishing Trip</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1365,12 +1365,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>What an amazing experience to see how fish gets picked up early morning, and then to have a wonderful meal with the freshest of ingredients.  I cannot say enough about the kindness of the staff especially Antonia, so welcoming and friendly, always making sure the group was…</t>
+          <t>Absolutely fabulous day out with Michalis Fishing. Antonia greeted us with Greek coffee and the most fabulous cake which her daughter had made. Once the other two families had joined us we set sail for where Captain Michalis had set the nets the previous day. We watched as the nets were reeled in and the catch was removed from the nets, and then we stopped in a lovely bay for a swim. Whilst we relaxed in the water Antonia made the most delicious bruschetta with all fresh ingredients - so tasty.  Then we set sail for an alternative spot for another swim stop whilst lunch was prepared. I can’t describe how fantastic the food was. A good fish restaurant in London would have charged a small fortune for half of what we ate. Absolutely beautiful. The wine and water flowed all day too. After lunch and another few swims and relaxing on the boat in the sun we set off back to the marina. It was the perfect day. The hosts were so friendly and it was really interesting watching the nets being brought up and emptied. And then the catch being turned into our lunch! But even if you don’t have the remotest interest in fishing you will still have a great day out on the water with lovely people. We would thoroughly recommend it. If you’re concerned about Covid-19 this year I can assure you they very much look after you - The boat is bigger than I expected but they don’t take out too many people so social distancing is not a problem. With temperature checks etc on arrival they clearly take every precaution to make sure everything is safe for their guests. We absolutely loved it and will definitely book when we’re next in Kefalonia. Thank you to everyone on board for making our day so special. Kat and Jonathan. X</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fun, perfect, and delicious!</t>
+          <t>Fantastic day out with the best food!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1381,12 +1381,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>We had a great time! We visited the most amazing beaches that can’t be approached by car. We also went to skopelos and some of us tried fishing and it was so fun! Great music and very friendly environment. Highly recommended as it doesn’t feel like an experience designed for…</t>
+          <t xml:space="preserve">We didn’t do the fishing trip but the one hour mini cruise which went ahead despite there only being two of us on board. We went along both sides of the harbour and enjoyed the trip. Care was taken in relation to Covid. Capt Tasos is obviously a friendly character and we loved the dog. </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sailing to Skopelos end other places</t>
+          <t>Couldn’t be better</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Absolutely amazing experience, my partner and I had very active lines. The Greek salad with our bbq fish made the experience complete after a swim in the very clear sea. The on board fishermen were a joy to spend your time with and always ready to assist and advise. I would…</t>
+          <t xml:space="preserve">Celebrated a friends 50th birthday on board and had the most fun.  The fish freshly caught and cooked as part of an amazing lunch.  So friendly and welcoming on boat.  Highly recommend a trip with Zante Fishing Tours.  Thanks for the memories. </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Best Fishing trip that I have been on.</t>
+          <t>What a great day out</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1413,12 +1413,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Absolutely magical time on the water .... can t say enough good things about Dimitris and his wonderful hospitality. Took us to some wonderful locations in and around the isles of skiathos and skopoles. Charming and so considerate of his guests. Would heartily recommend his…</t>
+          <t>Amazing trip.  Giannis  met us with a beaming smile, his boat looking all lovely and clean, tea and coffee, pastries and beautiful fresh fruit and homemade lemonade was set out for our breakfast.  Off to an exceptional start as far as a non fisherwoman is concerned!The trip can be tailored to your requirements - we wanted to catch a big fish so went deep sea fishing, which proved to work very well as we caught a red snapper.Whilst we went for a swim in the beautiful sea and a walk on a deserted beach, the fresh fish we caught were being prepared by Giannis for our lunch.  Absolutely stunning.  I honestly cannot recommend this enough, a truly fabulous experience and not only for people who enjoy fishing.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wonderful Experience</t>
+          <t>Fabulous Fishing Trip</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
